--- a/Python/HYCX-JJSX.xlsx
+++ b/Python/HYCX-JJSX.xlsx
@@ -744,9 +744,6 @@
     <t>//*[@id="myModal2"]/form/div/div[2]/div[7]/div[1]/div/input</t>
   </si>
   <si>
-    <t>//*[@id="myModal2"]/form/div/div[2]/div[7]/div[1]/a/span</t>
-  </si>
-  <si>
     <t>//*[@id="myModal2"]/form/div/div[2]/div[8]/div[1]/div/input</t>
   </si>
   <si>
@@ -2080,6 +2077,10 @@
   </si>
   <si>
     <t>预期-银行账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="myModal2"]/form/div/div[2]/div[7]/div[1]/a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2469,9 +2470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2499,7 +2500,7 @@
         <v>232</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>233</v>
@@ -2511,7 +2512,7 @@
         <v>234</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>235</v>
@@ -2523,7 +2524,7 @@
         <v>236</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>237</v>
@@ -2535,7 +2536,7 @@
         <v>238</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>239</v>
@@ -2547,22 +2548,22 @@
         <v>240</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>241</v>
+        <v>684</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="U1" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>1</v>
@@ -2570,7 +2571,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>213</v>
@@ -2579,48 +2580,48 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>611</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>213</v>
@@ -2629,55 +2630,55 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" s="4"/>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>16</v>
@@ -2689,31 +2690,31 @@
         <v>15</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" s="4"/>
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>21</v>
@@ -2725,37 +2726,37 @@
         <v>20</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B6" s="4"/>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>25</v>
@@ -2763,35 +2764,35 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B7" s="4"/>
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>30</v>
@@ -2799,38 +2800,38 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B8" s="4"/>
       <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>35</v>
@@ -2847,19 +2848,19 @@
         <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>41</v>
@@ -2873,7 +2874,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>213</v>
@@ -2882,90 +2883,90 @@
         <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" s="4"/>
       <c r="D11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>213</v>
@@ -2974,45 +2975,45 @@
         <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>53</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>213</v>
@@ -3021,45 +3022,45 @@
         <v>56</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>213</v>
@@ -3071,42 +3072,42 @@
         <v>214</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>61</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>213</v>
@@ -3118,45 +3119,45 @@
         <v>215</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>66</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>67</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>213</v>
@@ -3168,42 +3169,42 @@
         <v>216</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>70</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>71</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>213</v>
@@ -3212,45 +3213,45 @@
         <v>72</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>73</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>74</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>75</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>213</v>
@@ -3262,42 +3263,42 @@
         <v>217</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>79</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>213</v>
@@ -3309,42 +3310,42 @@
         <v>218</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>82</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>83</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>213</v>
@@ -3356,42 +3357,42 @@
         <v>219</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>86</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>87</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>213</v>
@@ -3400,45 +3401,45 @@
         <v>88</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>89</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>91</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>213</v>
@@ -3447,45 +3448,45 @@
         <v>92</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>93</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>94</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>95</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>213</v>
@@ -3497,42 +3498,42 @@
         <v>221</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>97</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>98</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>99</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>220</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>213</v>
@@ -3541,45 +3542,45 @@
         <v>100</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>101</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>102</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>213</v>
@@ -3588,45 +3589,45 @@
         <v>104</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>105</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>106</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>107</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>213</v>
@@ -3638,42 +3639,42 @@
         <v>222</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>109</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>110</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>111</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>213</v>
@@ -3685,42 +3686,42 @@
         <v>223</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>113</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>115</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>213</v>
@@ -3732,45 +3733,45 @@
         <v>224</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>117</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>118</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>119</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>213</v>
@@ -3782,45 +3783,45 @@
         <v>225</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>121</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>122</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>123</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>213</v>
@@ -3832,45 +3833,45 @@
         <v>226</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>125</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>126</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>127</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>213</v>
@@ -3882,45 +3883,45 @@
         <v>227</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>129</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>130</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>131</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>213</v>
@@ -3932,45 +3933,45 @@
         <v>228</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>133</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>134</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>213</v>
@@ -3982,45 +3983,45 @@
         <v>229</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>137</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>138</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>139</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>213</v>
@@ -4032,45 +4033,45 @@
         <v>230</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>141</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>142</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>143</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>213</v>
@@ -4079,48 +4080,48 @@
         <v>144</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>145</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>146</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>147</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>213</v>
@@ -4129,48 +4130,48 @@
         <v>148</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>149</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>150</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>151</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>213</v>
@@ -4182,25 +4183,25 @@
         <v>231</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>153</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>154</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>155</v>
@@ -4209,18 +4210,18 @@
         <v>230</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>213</v>
@@ -4229,48 +4230,48 @@
         <v>156</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>158</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>159</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>213</v>
@@ -4279,45 +4280,45 @@
         <v>160</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>161</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>162</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>163</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>213</v>
@@ -4326,16 +4327,16 @@
         <v>164</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>165</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>166</v>
@@ -4347,21 +4348,21 @@
         <v>167</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>213</v>
@@ -4370,25 +4371,25 @@
         <v>168</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>169</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>170</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>171</v>
@@ -4397,15 +4398,15 @@
         <v>0</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>213</v>
@@ -4414,31 +4415,31 @@
         <v>172</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>173</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>174</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>176</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>175</v>
@@ -4453,34 +4454,34 @@
         <v>177</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>178</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>179</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>181</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>180</v>
@@ -4488,1793 +4489,1793 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B44" s="4"/>
       <c r="D44" s="1" t="s">
         <v>182</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>183</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>184</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>186</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>185</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="4"/>
       <c r="D45" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>188</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>189</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>191</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>190</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B46" s="4"/>
       <c r="E46" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>192</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>194</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>193</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>213</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>195</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>197</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>196</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>213</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>198</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>200</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>199</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>213</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>201</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>203</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>202</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B50" s="4"/>
       <c r="E50" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>204</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>206</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>205</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>207</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>209</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>208</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>213</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>210</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B53" s="4"/>
       <c r="I53" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>211</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>213</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>212</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>213</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>213</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I57" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E58" s="4"/>
       <c r="I58" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I59" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E60" s="4"/>
       <c r="I60" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E61" s="4"/>
       <c r="I61" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I62" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I63" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I64" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I65" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I66" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I67" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I68" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I69" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M69" s="2"/>
     </row>
     <row r="70" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I70" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I71" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I72" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I73" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I74" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I75" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I76" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I77" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I78" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I79" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I80" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="81" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I81" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I82" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="83" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I83" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I84" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I85" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="86" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I86" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I87" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I88" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I89" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I90" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I91" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I92" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I93" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I94" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I95" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="96" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I96" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="97" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I97" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M97" s="2"/>
     </row>
     <row r="98" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I98" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I99" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I100" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I101" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I102" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="103" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I103" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="104" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I104" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="105" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I105" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="106" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I106" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="107" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I107" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="108" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I108" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="109" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I109" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I110" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="111" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I111" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I112" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I113" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="114" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I114" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="115" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I115" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I116" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I117" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="118" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I118" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="119" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I119" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I120" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="121" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I121" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="122" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I122" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="123" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I123" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I124" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I125" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M125" s="2"/>
     </row>
     <row r="126" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I126" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="127" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I127" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="128" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I128" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="129" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I129" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="130" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I130" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="131" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I131" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="132" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I132" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="133" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I133" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="134" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I134" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="135" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I135" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="136" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I136" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="137" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I137" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="138" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I138" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="139" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I139" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="140" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I140" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="141" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I141" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="142" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I142" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="143" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I143" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="144" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I144" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="145" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I145" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="146" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I146" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="147" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I147" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="148" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I148" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="149" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I149" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="150" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I150" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="151" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I151" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="152" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I152" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="153" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I153" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I154" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="155" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I155" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="156" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I156" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="157" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I157" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="158" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I158" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="159" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I159" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="160" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I160" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="161" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I161" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="162" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I162" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="163" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I163" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="164" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I164" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="165" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I165" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="166" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I166" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="167" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I167" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="168" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I168" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="169" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I169" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="170" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I170" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="171" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I171" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="172" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I172" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="173" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I173" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="174" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I174" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M174" s="4"/>
     </row>
     <row r="175" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I175" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="176" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I176" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M176" s="4"/>
     </row>
     <row r="177" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I177" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="178" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I178" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M178" s="4"/>
     </row>
     <row r="179" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I179" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M179" s="4"/>
     </row>
     <row r="180" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I180" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M180" s="4"/>
     </row>
     <row r="181" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I181" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M181" s="4"/>
     </row>
     <row r="182" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I182" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M182" s="4"/>
     </row>
     <row r="183" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I183" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M183" s="4"/>
     </row>
     <row r="184" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I184" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M184" s="4"/>
     </row>
     <row r="185" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I185" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M185" s="4"/>
     </row>
     <row r="186" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I186" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="187" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I187" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="188" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I188" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="189" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I189" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="190" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I190" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="191" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I191" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="192" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I192" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="193" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I193" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="194" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I194" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="195" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I195" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="196" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I196" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="197" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I197" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="198" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I198" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="199" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I199" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="200" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I200" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="201" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I201" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="202" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I202" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="203" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I203" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="204" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I204" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="205" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I205" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="206" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I206" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="207" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I207" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="208" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I208" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="209" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I209" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="210" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I210" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="211" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I211" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="212" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I212" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="213" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I213" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="214" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I214" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="215" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I215" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="216" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I216" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="217" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I217" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="218" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I218" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="219" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I219" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="220" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I220" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="221" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I221" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="222" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I222" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
